--- a/任务及绩效评价/SE2019春-G11-第四周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第四周任务以及绩效评价.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三周任务清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总评 (1/1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周任务清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -564,15 +564,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -687,7 +687,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -703,31 +703,31 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
       </c>
       <c r="F14" s="7"/>
     </row>

--- a/任务及绩效评价/SE2019春-G11-第四周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第四周任务以及绩效评价.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="20180323" sheetId="4" r:id="rId1"/>
+    <sheet name="第四周任务清单" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
